--- a/자유수강권/중국어(교재).xlsx
+++ b/자유수강권/중국어(교재).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
   <si>
     <t>주야</t>
   </si>
@@ -103,6 +103,15 @@
     <t>홍윤성</t>
   </si>
   <si>
+    <t>4반</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>김준혁</t>
+  </si>
+  <si>
     <t>3학년</t>
   </si>
   <si>
@@ -119,9 +128,6 @@
   </si>
   <si>
     <t>안세연</t>
-  </si>
-  <si>
-    <t>4반</t>
   </si>
   <si>
     <t>김태영</t>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,16 +857,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -877,16 +883,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -903,16 +909,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -929,13 +935,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
@@ -955,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>39</v>
@@ -981,13 +987,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
@@ -1007,13 +1013,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -1033,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
@@ -1059,10 +1065,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
@@ -1085,16 +1091,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1111,16 +1117,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1137,13 +1143,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>52</v>
@@ -1163,13 +1169,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
@@ -1189,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1215,16 +1221,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1241,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>58</v>
@@ -1267,10 +1273,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>59</v>
@@ -1293,10 +1299,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>61</v>
@@ -1319,16 +1325,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1345,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>65</v>
@@ -1371,16 +1377,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1397,16 +1403,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1423,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>69</v>
@@ -1449,16 +1455,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
@@ -1475,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>72</v>
@@ -1493,6 +1499,32 @@
         <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
